--- a/doors-detector/results/house7.xlsx
+++ b/doors-detector/results/house7.xlsx
@@ -495,16 +495,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7261447053846489</v>
+        <v>0.7535510592396356</v>
       </c>
       <c r="F2" t="n">
         <v>2270</v>
       </c>
       <c r="G2" t="n">
-        <v>1800</v>
+        <v>1849</v>
       </c>
       <c r="H2" t="n">
-        <v>470</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3053254437869822</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
@@ -536,7 +536,7 @@
         <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -550,7 +550,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.6216722133459233</v>
+        <v>0.6611715574996181</v>
       </c>
       <c r="F4" t="n">
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H4" t="n">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7678990263124887</v>
+        <v>0.7837199019309589</v>
       </c>
       <c r="F5" t="n">
         <v>2270</v>
       </c>
       <c r="G5" t="n">
-        <v>1870</v>
+        <v>1886</v>
       </c>
       <c r="H5" t="n">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6">
@@ -614,7 +614,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2a</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.3570512820512821</v>
+        <v>0.3780219780219781</v>
       </c>
       <c r="F6" t="n">
         <v>13</v>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7356533891199815</v>
+        <v>0.7336335590885684</v>
       </c>
       <c r="F7" t="n">
         <v>120</v>
       </c>
       <c r="G7" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7411739981812975</v>
+        <v>0.7526561032199246</v>
       </c>
       <c r="F8" t="n">
         <v>2270</v>
       </c>
       <c r="G8" t="n">
-        <v>1825</v>
+        <v>1839</v>
       </c>
       <c r="H8" t="n">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9">
@@ -710,7 +710,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2c</t>
+          <t>2b</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4335664335664335</v>
+        <v>0.4198717948717948</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
@@ -742,25 +742,25 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>2b</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E10" t="n">
-        <v>0.7194456254844017</v>
+        <v>0.7734527696364658</v>
       </c>
       <c r="F10" t="n">
         <v>120</v>
       </c>
       <c r="G10" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H10" t="n">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2a</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7695199309497238</v>
+        <v>0.7830068041678526</v>
       </c>
       <c r="F11" t="n">
         <v>2270</v>
       </c>
       <c r="G11" t="n">
-        <v>1871</v>
+        <v>1890</v>
       </c>
       <c r="H11" t="n">
-        <v>399</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
@@ -806,7 +806,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2b</t>
+          <t>2c</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.441025641025641</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="F12" t="n">
         <v>13</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7719165894976973</v>
+        <v>0.7588939825559868</v>
       </c>
       <c r="F13" t="n">
         <v>120</v>
       </c>
       <c r="G13" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H13" t="n">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
